--- a/T-DQM/T-DQM Instantiated for Traceability Datasets.xlsx
+++ b/T-DQM/T-DQM Instantiated for Traceability Datasets.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataset Characteristics" sheetId="1" r:id="rId1"/>
+    <sheet name="Number Coding" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>DataSet Name</t>
   </si>
@@ -227,13 +228,106 @@
   </si>
   <si>
     <t xml:space="preserve">JDK 1.5 </t>
+  </si>
+  <si>
+    <t>Number Coding</t>
+  </si>
+  <si>
+    <t>SW Type</t>
+  </si>
+  <si>
+    <t>Development Libraries</t>
+  </si>
+  <si>
+    <t>Open Source</t>
+  </si>
+  <si>
+    <t>COEST/PROMISE</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Industrial/Prorierity</t>
+  </si>
+  <si>
+    <t>University Repo</t>
+  </si>
+  <si>
+    <t>Aerospace</t>
+  </si>
+  <si>
+    <t>Student SW</t>
+  </si>
+  <si>
+    <t>SVN/GITHUB</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication </t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Office Automation</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>Modeling</t>
+  </si>
+  <si>
+    <t>SRC</t>
+  </si>
+  <si>
+    <t>Power &amp; Automation</t>
+  </si>
+  <si>
+    <t>HTML/TXT</t>
+  </si>
+  <si>
+    <t>Software Eng. Tool</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Data Management</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>OSS Community</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>C/C++</t>
+  </si>
+  <si>
+    <t>Student/Researchers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +376,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -315,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -338,12 +439,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -395,12 +518,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -409,6 +526,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A48"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.54296875" defaultRowHeight="14.5"/>
@@ -739,27 +904,27 @@
     <col min="20" max="16384" width="17.54296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="23" customFormat="1" ht="74">
+    <row r="1" spans="1:20" s="21" customFormat="1" ht="55.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
@@ -772,62 +937,62 @@
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
-    </row>
-    <row r="2" spans="1:20" s="24" customFormat="1">
-      <c r="A2" s="24" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="20"/>
+    </row>
+    <row r="2" spans="1:20" s="22" customFormat="1">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3136,7 +3301,7 @@
       </c>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="43.5">
+    <row r="43" spans="1:19" ht="29">
       <c r="A43" s="15" t="s">
         <v>63</v>
       </c>
@@ -3525,4 +3690,462 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="18.36328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="43" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="6"/>
+    <col min="9" max="9" width="18.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="33"/>
+    <col min="13" max="13" width="34.81640625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" style="33" customWidth="1"/>
+    <col min="15" max="16" width="8.7265625" style="33"/>
+    <col min="17" max="17" width="18.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.5">
+      <c r="A1" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="36">
+        <v>2</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="36">
+        <v>3</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.5">
+      <c r="A5" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="36">
+        <v>4</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5">
+      <c r="D6" s="37"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.5">
+      <c r="A7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5">
+      <c r="A8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5">
+      <c r="A9" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="36">
+        <v>2</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="36">
+        <v>3</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="36">
+        <v>4</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="6"/>
+      <c r="D12" s="37"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.5">
+      <c r="A13" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="37"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="36">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="36">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="36">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="C17" s="6"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.5">
+      <c r="A18" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="36">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="36">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="36">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.5">
+      <c r="A23" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.5">
+      <c r="A24" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="29">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.5">
+      <c r="A25" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="29">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.5">
+      <c r="A26" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="29">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.5">
+      <c r="A27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="29">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.5">
+      <c r="A28" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="29">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="29">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="29">
+        <v>7</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="29">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.5">
+      <c r="A35" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18.5">
+      <c r="A37" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5">
+      <c r="A38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.5">
+      <c r="A39" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.5">
+      <c r="A40" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="36">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>